--- a/UDM.Insurance.Interface/Templates/ReportTemplateDiary.xlsx
+++ b/UDM.Insurance.Interface/Templates/ReportTemplateDiary.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TyronR\Desktop\Source\udminsure\UDM.Insurance.Interface\Templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57484D92-9B96-4195-971A-9BEED693964D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="30" windowWidth="21540" windowHeight="12450" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReportOLD" sheetId="1" r:id="rId1"/>
@@ -15,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Diary Report</t>
   </si>
@@ -63,12 +69,21 @@
   </si>
   <si>
     <t>Page</t>
+  </si>
+  <si>
+    <t>Call Data</t>
+  </si>
+  <si>
+    <t>Most recent call data</t>
+  </si>
+  <si>
+    <t>Calls &gt; 3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;R&quot;\ #,##0.00"/>
   </numFmts>
@@ -139,7 +154,7 @@
       </gradientFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -199,12 +214,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -212,10 +236,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -224,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -233,22 +257,16 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -260,11 +278,8 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -280,6 +295,12 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -557,74 +578,74 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" style="13" customWidth="1"/>
-    <col min="7" max="7" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.54296875" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="1:7" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="20"/>
+    </row>
+    <row r="2" spans="1:7" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -634,7 +655,7 @@
       <c r="C7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -643,18 +664,18 @@
       <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="7"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="15"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -668,119 +689,151 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:H5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="16.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.81640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.1796875" customWidth="1"/>
+    <col min="10" max="10" width="22.08984375" customWidth="1"/>
+    <col min="11" max="11" width="22.1796875" customWidth="1"/>
+    <col min="12" max="12" width="21.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:12" ht="31" x14ac:dyDescent="0.7">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="23"/>
-    </row>
-    <row r="2" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-    </row>
-    <row r="4" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+    </row>
+    <row r="4" spans="1:12" ht="7" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-    </row>
-    <row r="6" spans="1:8" ht="6.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+    </row>
+    <row r="6" spans="1:12" ht="7" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="17" t="s">
+      <c r="G7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="20"/>
+      <c r="B8" s="6"/>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="14"/>
+      <c r="E8" s="12"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="19"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A5:L5"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="77" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="55" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>